--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -30,6 +30,21 @@
   <si>
     <t>fog</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>tt1</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>tt2</t>
+  </si>
 </sst>
 </file>
 
@@ -37,8 +52,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -50,6 +65,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -64,78 +87,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,42 +110,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +185,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -203,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,10 +414,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -419,45 +432,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,7 +455,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,8 +463,49 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,7 +1014,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1027,14 +1042,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4F41E5-3A90-4331-BBDE-B66B07BDA47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27195" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,27 +31,32 @@
     <t>fog</t>
   </si>
   <si>
-    <t>tt1</t>
+    <t>D1001</t>
+  </si>
+  <si>
+    <t>tt2</t>
   </si>
   <si>
     <t>nil</t>
   </si>
   <si>
-    <t>D1001</t>
-  </si>
-  <si>
     <t>K1001</t>
   </si>
   <si>
-    <t>tt2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>tt1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +68,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -83,20 +81,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,9 +424,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -117,21 +679,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -418,19 +1024,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
@@ -438,7 +1044,7 @@
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,42 +1061,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>safe</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>cityId</t>
@@ -51,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,22 +75,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,21 +98,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,6 +118,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -137,9 +133,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,23 +166,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,30 +196,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,14 +213,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,21 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,20 +438,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +498,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -679,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,21 +1026,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,39 +1060,48 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>nil</t>
   </si>
   <si>
+    <t>permanent</t>
+  </si>
+  <si>
     <t>K1001</t>
   </si>
   <si>
@@ -54,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,6 +77,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -81,8 +113,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,14 +131,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,23 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,52 +168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -205,14 +186,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +421,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,15 +446,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,17 +465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,13 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1032,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1081,15 +1084,15 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1101,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A4634-F712-4C6B-B24E-183877123BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27195" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,20 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E99A9D80-0CCF-494B-8C43-1B93B77FA8FC}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,9 +33,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -69,7 +59,7 @@
     <t>safe</t>
   </si>
   <si>
-    <t>item</t>
+    <t>itemId</t>
   </si>
   <si>
     <t>cityId</t>
@@ -87,6 +77,12 @@
     <t>nil</t>
   </si>
   <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>D1002</t>
+  </si>
+  <si>
     <t>permanent</t>
   </si>
   <si>
@@ -96,28 +92,32 @@
     <t>tt1</t>
   </si>
   <si>
-    <t>D1002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>K1002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K1003</t>
   </si>
   <si>
-    <t>temporary</t>
-  </si>
-  <si>
     <t>tt3</t>
+  </si>
+  <si>
+    <t>C1001</t>
+  </si>
+  <si>
+    <t>city1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,49 +129,366 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,9 +496,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -195,21 +754,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,19 +1099,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
@@ -520,7 +1123,7 @@
     <col min="10" max="10" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -557,12 +1160,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -577,15 +1180,15 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -597,15 +1200,15 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -617,12 +1220,12 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -637,12 +1240,32 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03678FA0-24A5-4ED1-8C6C-47CA0C79EDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62ECDF7-FB4B-4FCC-B71D-854922810A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16110" yWindow="9585" windowWidth="14970" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="2085" windowWidth="14970" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -315,13 +317,45 @@
   </si>
   <si>
     <t>H1112</t>
+  </si>
+  <si>
+    <t>D1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1004</t>
+  </si>
+  <si>
+    <t>D1005</t>
+  </si>
+  <si>
+    <t>D1006</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>C1106</t>
+  </si>
+  <si>
+    <t>city103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,12 +367,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -346,11 +382,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -368,8 +406,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +433,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -403,7 +460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,9 +470,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +477,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,17 +874,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -828,728 +894,728 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
         <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>71</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>61</v>
+      <c r="A41" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1561,15 +1627,15 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>62</v>
+      <c r="A42" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1581,15 +1647,15 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>63</v>
+      <c r="A43" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1601,69 +1667,169 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
         <v>75</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F51" t="s">
         <v>11</v>
       </c>
     </row>

--- a/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
+++ b/UniPrj/EAM/Assets/GameSettings~/TableMapTile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Work\EAM\EAM\UniPrj\EAM\Assets\GameSettings~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62ECDF7-FB4B-4FCC-B71D-854922810A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FC3DEF-3B66-42DE-81AA-A0D69E333E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2085" windowWidth="14970" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-3975" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -46,8 +46,8 @@
           </rPr>
           <t xml:space="preserve">
 temporary=临时迷雾
-Per=永久迷雾
-obs=不能进入区域</t>
+permanent=永久迷雾
+obstacle=不能进入区域（但不在这里填）</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -85,269 +85,273 @@
     <t>nil</t>
   </si>
   <si>
+    <t>D1002</t>
+  </si>
+  <si>
+    <t>K1001</t>
+  </si>
+  <si>
+    <t>tt1</t>
+  </si>
+  <si>
+    <t>K1002</t>
+  </si>
+  <si>
+    <t>K1003</t>
+  </si>
+  <si>
+    <t>tt3</t>
+  </si>
+  <si>
+    <t>city101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>city102</t>
+  </si>
+  <si>
+    <t>city201</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>city202</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>city301</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>city302</t>
+  </si>
+  <si>
+    <t>city401</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>city402</t>
+  </si>
+  <si>
+    <t>city501</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>city502</t>
+  </si>
+  <si>
+    <t>C1101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1102</t>
+  </si>
+  <si>
+    <t>C1103</t>
+  </si>
+  <si>
+    <t>C1104</t>
+  </si>
+  <si>
+    <t>C1105</t>
+  </si>
+  <si>
+    <t>C1201</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1202</t>
+  </si>
+  <si>
+    <t>C1203</t>
+  </si>
+  <si>
+    <t>C1204</t>
+  </si>
+  <si>
+    <t>C1205</t>
+  </si>
+  <si>
+    <t>C1301</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1302</t>
+  </si>
+  <si>
+    <t>C1303</t>
+  </si>
+  <si>
+    <t>C1304</t>
+  </si>
+  <si>
+    <t>C1305</t>
+  </si>
+  <si>
+    <t>C1401</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1402</t>
+  </si>
+  <si>
+    <t>C1403</t>
+  </si>
+  <si>
+    <t>C1404</t>
+  </si>
+  <si>
+    <t>C1405</t>
+  </si>
+  <si>
+    <t>C1501</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1502</t>
+  </si>
+  <si>
+    <t>C1503</t>
+  </si>
+  <si>
+    <t>C1504</t>
+  </si>
+  <si>
+    <t>C1505</t>
+  </si>
+  <si>
+    <t>C1306</t>
+  </si>
+  <si>
+    <t>C1307</t>
+  </si>
+  <si>
+    <t>C1308</t>
+  </si>
+  <si>
+    <t>H1011</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1021</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1031</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1041</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1051</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1071</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1081</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1091</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1101</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1111</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaiJi-1</t>
+  </si>
+  <si>
+    <t>CaiJi-2</t>
+  </si>
+  <si>
+    <t>CaiJi-3</t>
+  </si>
+  <si>
+    <t>CaiJi-4</t>
+  </si>
+  <si>
+    <t>CaiJi-5</t>
+  </si>
+  <si>
+    <t>CaiJi-6</t>
+  </si>
+  <si>
+    <t>CaiJi-7</t>
+  </si>
+  <si>
+    <t>CaiJi-8</t>
+  </si>
+  <si>
+    <t>CaiJi-9</t>
+  </si>
+  <si>
+    <t>CaiJi-10</t>
+  </si>
+  <si>
+    <t>CaiJi-10-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaiJi-10-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1112</t>
+  </si>
+  <si>
+    <t>D1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1004</t>
+  </si>
+  <si>
+    <t>D1005</t>
+  </si>
+  <si>
+    <t>D1006</t>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>C1106</t>
+  </si>
+  <si>
+    <t>city103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>temporary</t>
   </si>
   <si>
-    <t>D1002</t>
-  </si>
-  <si>
     <t>permanent</t>
   </si>
   <si>
-    <t>K1001</t>
-  </si>
-  <si>
-    <t>tt1</t>
-  </si>
-  <si>
-    <t>K1002</t>
-  </si>
-  <si>
-    <t>K1003</t>
-  </si>
-  <si>
-    <t>tt3</t>
-  </si>
-  <si>
-    <t>city101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city102</t>
-  </si>
-  <si>
-    <t>city201</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city202</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city301</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city302</t>
-  </si>
-  <si>
-    <t>city401</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city402</t>
-  </si>
-  <si>
-    <t>city501</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city502</t>
-  </si>
-  <si>
-    <t>C1101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1102</t>
-  </si>
-  <si>
-    <t>C1103</t>
-  </si>
-  <si>
-    <t>C1104</t>
-  </si>
-  <si>
-    <t>C1105</t>
-  </si>
-  <si>
-    <t>C1201</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1202</t>
-  </si>
-  <si>
-    <t>C1203</t>
-  </si>
-  <si>
-    <t>C1204</t>
-  </si>
-  <si>
-    <t>C1205</t>
-  </si>
-  <si>
-    <t>C1301</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1302</t>
-  </si>
-  <si>
-    <t>C1303</t>
-  </si>
-  <si>
-    <t>C1304</t>
-  </si>
-  <si>
-    <t>C1305</t>
-  </si>
-  <si>
-    <t>C1401</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1402</t>
-  </si>
-  <si>
-    <t>C1403</t>
-  </si>
-  <si>
-    <t>C1404</t>
-  </si>
-  <si>
-    <t>C1405</t>
-  </si>
-  <si>
-    <t>C1501</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1502</t>
-  </si>
-  <si>
-    <t>C1503</t>
-  </si>
-  <si>
-    <t>C1504</t>
-  </si>
-  <si>
-    <t>C1505</t>
-  </si>
-  <si>
-    <t>C1306</t>
-  </si>
-  <si>
-    <t>C1307</t>
-  </si>
-  <si>
-    <t>C1308</t>
-  </si>
-  <si>
-    <t>H1011</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1021</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1031</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1041</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1051</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1061</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1071</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1081</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1091</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1101</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1111</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaiJi-1</t>
-  </si>
-  <si>
-    <t>CaiJi-2</t>
-  </si>
-  <si>
-    <t>CaiJi-3</t>
-  </si>
-  <si>
-    <t>CaiJi-4</t>
-  </si>
-  <si>
-    <t>CaiJi-5</t>
-  </si>
-  <si>
-    <t>CaiJi-6</t>
-  </si>
-  <si>
-    <t>CaiJi-7</t>
-  </si>
-  <si>
-    <t>CaiJi-8</t>
-  </si>
-  <si>
-    <t>CaiJi-9</t>
-  </si>
-  <si>
-    <t>CaiJi-10</t>
-  </si>
-  <si>
-    <t>CaiJi-10-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaiJi-10-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1112</t>
-  </si>
-  <si>
-    <t>D1003</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1004</t>
-  </si>
-  <si>
-    <t>D1005</t>
-  </si>
-  <si>
-    <t>D1006</t>
-  </si>
-  <si>
-    <t>item1</t>
-  </si>
-  <si>
-    <t>item2</t>
-  </si>
-  <si>
-    <t>item3</t>
-  </si>
-  <si>
-    <t>item4</t>
-  </si>
-  <si>
-    <t>C1106</t>
-  </si>
-  <si>
-    <t>city103</t>
+    <t>permanent</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +493,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,7 +805,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -850,12 +857,12 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -870,12 +877,12 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -884,18 +891,18 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -904,18 +911,18 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -924,18 +931,18 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -944,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -970,15 +977,15 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -989,16 +996,16 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
+      <c r="F9" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
@@ -1009,13 +1016,13 @@
       <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>8</v>
+      <c r="F10" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1027,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1035,7 +1042,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1047,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -1055,7 +1062,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1067,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -1075,7 +1082,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1087,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1095,7 +1102,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1107,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -1115,7 +1122,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1127,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -1135,7 +1142,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1147,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -1155,7 +1162,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1167,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -1175,7 +1182,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1187,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -1195,7 +1202,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1207,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -1215,7 +1222,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1227,7 +1234,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -1235,7 +1242,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1247,7 +1254,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -1255,7 +1262,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1267,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -1275,7 +1282,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1287,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -1295,7 +1302,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1307,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1315,7 +1322,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1327,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1335,7 +1342,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1347,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1355,7 +1362,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1367,7 +1374,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1375,7 +1382,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1387,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1395,7 +1402,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1407,7 +1414,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1415,7 +1422,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1427,7 +1434,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1435,7 +1442,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1447,7 +1454,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1455,7 +1462,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1467,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1475,7 +1482,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1487,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1495,7 +1502,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1507,7 +1514,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1515,7 +1522,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1527,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1535,7 +1542,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -1547,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1555,7 +1562,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1567,7 +1574,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1575,7 +1582,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1587,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -1595,7 +1602,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1607,15 +1614,15 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1627,15 +1634,15 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1647,15 +1654,15 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1667,15 +1674,15 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1687,15 +1694,15 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1707,15 +1714,15 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1727,15 +1734,15 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1747,15 +1754,15 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1767,15 +1774,15 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1787,15 +1794,15 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1807,15 +1814,15 @@
         <v>8</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1827,10 +1834,10 @@
         <v>8</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
